--- a/Results/Results_world_Avg.xlsx
+++ b/Results/Results_world_Avg.xlsx
@@ -711,241 +711,241 @@
         <v>14.42546284501569</v>
       </c>
       <c r="O2">
-        <v>17.23575710321585</v>
+        <v>17.32696144875414</v>
       </c>
       <c r="P2">
-        <v>33.27702981309486</v>
+        <v>33.49229712085892</v>
       </c>
       <c r="Q2">
-        <v>34.00472098339534</v>
+        <v>34.39035951189135</v>
       </c>
       <c r="R2">
-        <v>34.79552095454732</v>
+        <v>35.41391701186709</v>
       </c>
       <c r="S2">
-        <v>84.00042804471251</v>
+        <v>84.92854605168267</v>
       </c>
       <c r="T2">
-        <v>83.71438638231686</v>
+        <v>85.02983824704027</v>
       </c>
       <c r="U2">
-        <v>83.88987525562206</v>
+        <v>85.64287068350005</v>
       </c>
       <c r="V2">
-        <v>84.71144910351255</v>
+        <v>86.88053710548009</v>
       </c>
       <c r="W2">
-        <v>85.64139867328551</v>
+        <v>88.07208021552728</v>
       </c>
       <c r="X2">
-        <v>79.58192445290794</v>
+        <v>81.86940173570979</v>
       </c>
       <c r="Y2">
-        <v>80.83217748617275</v>
+        <v>82.13676894029437</v>
       </c>
       <c r="Z2">
-        <v>81.6793657513422</v>
+        <v>80.89695578181423</v>
       </c>
       <c r="AA2">
-        <v>82.68084517149549</v>
+        <v>79.55134706089075</v>
       </c>
       <c r="AB2">
-        <v>85.68517820089644</v>
+        <v>80.93117727286746</v>
       </c>
       <c r="AC2">
-        <v>34.52817092076066</v>
+        <v>28.82934562369141</v>
       </c>
       <c r="AD2">
-        <v>39.26474048506606</v>
+        <v>32.98787764209279</v>
       </c>
       <c r="AE2">
-        <v>43.68796534372415</v>
+        <v>37.00066340813115</v>
       </c>
       <c r="AF2">
-        <v>43.18822250618128</v>
+        <v>36.16370408496176</v>
       </c>
       <c r="AG2">
-        <v>41.56394150483617</v>
+        <v>34.2327719916449</v>
       </c>
       <c r="AH2">
-        <v>33.78575165244676</v>
+        <v>26.15438006310633</v>
       </c>
       <c r="AI2">
-        <v>32.43461281160954</v>
+        <v>24.50581304935785</v>
       </c>
       <c r="AJ2">
-        <v>30.72161146897358</v>
+        <v>22.49461324689247</v>
       </c>
       <c r="AK2">
-        <v>29.45255312922679</v>
+        <v>20.92555656828924</v>
       </c>
       <c r="AL2">
-        <v>33.12646556796735</v>
+        <v>24.29788302425395</v>
       </c>
       <c r="AM2">
-        <v>41.95265581970883</v>
+        <v>32.81906623717911</v>
       </c>
       <c r="AN2">
-        <v>51.76148717000375</v>
+        <v>42.32333432585737</v>
       </c>
       <c r="AO2">
-        <v>65.70327019526373</v>
+        <v>55.96193739139504</v>
       </c>
       <c r="AP2">
-        <v>83.61144490010632</v>
+        <v>73.56913035839048</v>
       </c>
       <c r="AQ2">
-        <v>92.86798648287858</v>
+        <v>82.52753925372205</v>
       </c>
       <c r="AR2">
-        <v>93.90299162190833</v>
+        <v>83.26134351992908</v>
       </c>
       <c r="AS2">
-        <v>93.95503730512124</v>
+        <v>83.01595631059399</v>
       </c>
       <c r="AT2">
-        <v>93.0725463996595</v>
+        <v>81.83999657041021</v>
       </c>
       <c r="AU2">
-        <v>91.37817743081874</v>
+        <v>79.85621727345422</v>
       </c>
       <c r="AV2">
-        <v>90.83283785997688</v>
+        <v>79.02554276929158</v>
       </c>
       <c r="AW2">
-        <v>89.68005758508896</v>
+        <v>77.57320485635391</v>
       </c>
       <c r="AX2">
-        <v>93.75665758501449</v>
+        <v>81.35415645165392</v>
       </c>
       <c r="AY2">
-        <v>82.10072246008515</v>
+        <v>69.40637735576712</v>
       </c>
       <c r="AZ2">
-        <v>65.98914677302051</v>
+        <v>53.00663904691545</v>
       </c>
       <c r="BA2">
-        <v>59.04226032042013</v>
+        <v>45.77513722326848</v>
       </c>
       <c r="BB2">
-        <v>58.67630240731528</v>
+        <v>45.10795235763289</v>
       </c>
       <c r="BC2">
-        <v>57.69893595650247</v>
+        <v>43.83255968789291</v>
       </c>
       <c r="BD2">
-        <v>54.66137670635013</v>
+        <v>40.50003902636562</v>
       </c>
       <c r="BE2">
-        <v>50.97523259478614</v>
+        <v>36.5218648367924</v>
       </c>
       <c r="BF2">
-        <v>48.70649694557705</v>
+        <v>33.9639007549929</v>
       </c>
       <c r="BG2">
-        <v>47.31546529770821</v>
+        <v>32.27302526741257</v>
       </c>
       <c r="BH2">
-        <v>49.26498908659371</v>
+        <v>33.92527604494219</v>
       </c>
       <c r="BI2">
-        <v>54.71719780661086</v>
+        <v>39.08266757431116</v>
       </c>
       <c r="BJ2">
-        <v>63.66902328007474</v>
+        <v>47.74202283965818</v>
       </c>
       <c r="BK2">
-        <v>75.01320986792048</v>
+        <v>58.79598381103528</v>
       </c>
       <c r="BL2">
-        <v>86.83862276344625</v>
+        <v>70.3260918591609</v>
       </c>
       <c r="BM2">
-        <v>98.32217492283479</v>
+        <v>81.51640448691518</v>
       </c>
       <c r="BN2">
-        <v>105.2360273309465</v>
+        <v>88.13900052225496</v>
       </c>
       <c r="BO2">
-        <v>107.3842061468981</v>
+        <v>89.99783170844684</v>
       </c>
       <c r="BP2">
-        <v>107.3042840996497</v>
+        <v>89.63040455173902</v>
       </c>
       <c r="BQ2">
-        <v>105.9620521970489</v>
+        <v>87.99052447736831</v>
       </c>
       <c r="BR2">
-        <v>104.9318724310487</v>
+        <v>86.6643953354595</v>
       </c>
       <c r="BS2">
-        <v>103.9080280763456</v>
+        <v>85.34626569211129</v>
       </c>
       <c r="BT2">
-        <v>102.4439475085756</v>
+        <v>83.58954003208684</v>
       </c>
       <c r="BU2">
-        <v>98.756954483272</v>
+        <v>79.61152998233877</v>
       </c>
       <c r="BV2">
-        <v>90.10441670432634</v>
+        <v>70.65853611356371</v>
       </c>
       <c r="BW2">
-        <v>80.71445950956286</v>
+        <v>60.96975810921349</v>
       </c>
       <c r="BX2">
-        <v>75.03531333400227</v>
+        <v>54.99345585638441</v>
       </c>
       <c r="BY2">
-        <v>72.8113891233014</v>
+        <v>52.47408503270037</v>
       </c>
       <c r="BZ2">
-        <v>71.1373764926863</v>
+        <v>50.50639557378098</v>
       </c>
       <c r="CA2">
-        <v>68.24030922366346</v>
+        <v>47.30395967948595</v>
       </c>
       <c r="CB2">
-        <v>65.9878625005658</v>
+        <v>44.74807277460272</v>
       </c>
       <c r="CC2">
-        <v>64.90943128232855</v>
+        <v>43.36823255407359</v>
       </c>
       <c r="CD2">
-        <v>65.84591065663189</v>
+        <v>44.00544538680705</v>
       </c>
       <c r="CE2">
-        <v>69.56055877870502</v>
+        <v>47.42308403909227</v>
       </c>
       <c r="CF2">
-        <v>75.66382667376847</v>
+        <v>53.21527461957481</v>
       </c>
       <c r="CG2">
-        <v>84.89691511345225</v>
+        <v>62.13974721639234</v>
       </c>
       <c r="CH2">
-        <v>95.42681217784803</v>
+        <v>72.36356628358456</v>
       </c>
       <c r="CI2">
-        <v>105.6895052609533</v>
+        <v>82.3227609323248</v>
       </c>
       <c r="CJ2">
-        <v>114.0554467484611</v>
+        <v>90.38777896610641</v>
       </c>
       <c r="CK2">
-        <v>118.3169054607906</v>
+        <v>94.33329832923295</v>
       </c>
       <c r="CL2">
-        <v>120.261061134491</v>
+        <v>95.96390303607997</v>
       </c>
       <c r="CM2">
-        <v>120.1902031098303</v>
+        <v>95.58169013911288</v>
       </c>
       <c r="CN2">
-        <v>119.2177807831724</v>
+        <v>94.29985073763316</v>
       </c>
       <c r="CO2">
-        <v>117.8791658125952</v>
+        <v>92.65344011572105</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -988,241 +988,241 @@
         <v>4.779432872095397</v>
       </c>
       <c r="O3">
-        <v>5.769592299744142</v>
+        <v>5.784025224107451</v>
       </c>
       <c r="P3">
-        <v>11.46934672863574</v>
+        <v>11.50108520489411</v>
       </c>
       <c r="Q3">
-        <v>11.70757427414556</v>
+        <v>11.76010928367492</v>
       </c>
       <c r="R3">
-        <v>11.96678310593599</v>
+        <v>12.04415820648252</v>
       </c>
       <c r="S3">
-        <v>29.48627196319404</v>
+        <v>29.59292952729937</v>
       </c>
       <c r="T3">
-        <v>29.38714858801477</v>
+        <v>29.52589716769242</v>
       </c>
       <c r="U3">
-        <v>29.44114678951804</v>
+        <v>29.61009968350706</v>
       </c>
       <c r="V3">
-        <v>29.70947349279043</v>
+        <v>29.89509454435627</v>
       </c>
       <c r="W3">
-        <v>30.01378078824377</v>
+        <v>30.17410459035305</v>
       </c>
       <c r="X3">
-        <v>27.82402042840113</v>
+        <v>27.84526688590122</v>
       </c>
       <c r="Y3">
-        <v>28.23505712941187</v>
+        <v>27.85566953396089</v>
       </c>
       <c r="Z3">
-        <v>28.51242644820627</v>
+        <v>27.37743990476528</v>
       </c>
       <c r="AA3">
-        <v>28.84098303361793</v>
+        <v>26.89049819657439</v>
       </c>
       <c r="AB3">
-        <v>29.83384779553361</v>
+        <v>27.34357583690048</v>
       </c>
       <c r="AC3">
-        <v>11.49008347637079</v>
+        <v>8.705954996976994</v>
       </c>
       <c r="AD3">
-        <v>13.05762283184259</v>
+        <v>10.10701432457626</v>
       </c>
       <c r="AE3">
-        <v>14.52142213847776</v>
+        <v>11.46029034356551</v>
       </c>
       <c r="AF3">
-        <v>14.35271413918079</v>
+        <v>11.20449448888429</v>
       </c>
       <c r="AG3">
-        <v>13.81143697229464</v>
+        <v>10.58534913740484</v>
       </c>
       <c r="AH3">
-        <v>11.03903229611485</v>
+        <v>7.736786132177394</v>
       </c>
       <c r="AI3">
-        <v>10.58932472900781</v>
+        <v>7.211132554220864</v>
       </c>
       <c r="AJ3">
-        <v>10.02032390058443</v>
+        <v>6.565303171013909</v>
       </c>
       <c r="AK3">
-        <v>9.59933194220147</v>
+        <v>6.066311151160124</v>
       </c>
       <c r="AL3">
-        <v>10.81852112256754</v>
+        <v>7.206432756871537</v>
       </c>
       <c r="AM3">
-        <v>13.74719975357098</v>
+        <v>10.05470646830594</v>
       </c>
       <c r="AN3">
-        <v>17.00233515985595</v>
+        <v>13.22902501660861</v>
       </c>
       <c r="AO3">
-        <v>21.62854459685921</v>
+        <v>17.77432033424235</v>
       </c>
       <c r="AP3">
-        <v>27.57030378540779</v>
+        <v>23.63533570582094</v>
       </c>
       <c r="AQ3">
-        <v>30.64236947503252</v>
+        <v>26.62703756873486</v>
       </c>
       <c r="AR3">
-        <v>30.98689596438754</v>
+        <v>26.88934781505467</v>
       </c>
       <c r="AS3">
-        <v>31.00441168467579</v>
+        <v>26.82531197379906</v>
       </c>
       <c r="AT3">
-        <v>30.71066307658263</v>
+        <v>26.45073529009458</v>
       </c>
       <c r="AU3">
-        <v>30.14610083747166</v>
+        <v>25.80609568568834</v>
       </c>
       <c r="AV3">
-        <v>29.97109714872827</v>
+        <v>25.55176933448388</v>
       </c>
       <c r="AW3">
-        <v>29.5853601643985</v>
+        <v>25.08093824846767</v>
       </c>
       <c r="AX3">
-        <v>31.15015133920764</v>
+        <v>26.56134658933731</v>
       </c>
       <c r="AY3">
-        <v>27.27533120707186</v>
+        <v>22.60282563560431</v>
       </c>
       <c r="AZ3">
-        <v>21.92185850158347</v>
+        <v>17.16630094354478</v>
       </c>
       <c r="BA3">
-        <v>19.60745596401366</v>
+        <v>14.76946031358933</v>
       </c>
       <c r="BB3">
-        <v>19.44791247020398</v>
+        <v>14.52084483606968</v>
       </c>
       <c r="BC3">
-        <v>19.11321154366079</v>
+        <v>14.09760883111113</v>
       </c>
       <c r="BD3">
-        <v>18.09590407913282</v>
+        <v>12.99227085608661</v>
       </c>
       <c r="BE3">
-        <v>16.8644672305058</v>
+        <v>11.67327754544221</v>
       </c>
       <c r="BF3">
-        <v>16.10431204341511</v>
+        <v>10.82601150470918</v>
       </c>
       <c r="BG3">
-        <v>15.60917610994278</v>
+        <v>10.23951967673031</v>
       </c>
       <c r="BH3">
-        <v>16.25019178401803</v>
+        <v>10.78957552366638</v>
       </c>
       <c r="BI3">
-        <v>18.0540882343677</v>
+        <v>12.50288659125467</v>
       </c>
       <c r="BJ3">
-        <v>21.01967101319718</v>
+        <v>15.37823915528196</v>
       </c>
       <c r="BK3">
-        <v>24.77948333776962</v>
+        <v>19.04815951860363</v>
       </c>
       <c r="BL3">
-        <v>28.67874029638743</v>
+        <v>22.85527902510412</v>
       </c>
       <c r="BM3">
-        <v>32.4851972720935</v>
+        <v>26.56991088567782</v>
       </c>
       <c r="BN3">
-        <v>34.77617314137805</v>
+        <v>28.76936423178495</v>
       </c>
       <c r="BO3">
-        <v>35.48647775518859</v>
+        <v>29.38844178112322</v>
       </c>
       <c r="BP3">
-        <v>35.45755025509566</v>
+        <v>29.26857828384788</v>
       </c>
       <c r="BQ3">
-        <v>34.99475730754025</v>
+        <v>28.71099762107588</v>
       </c>
       <c r="BR3">
-        <v>34.64905183540282</v>
+        <v>28.27079161723522</v>
       </c>
       <c r="BS3">
-        <v>34.3048111819111</v>
+        <v>27.83234311625544</v>
       </c>
       <c r="BT3">
-        <v>33.81386124842067</v>
+        <v>27.24748711563495</v>
       </c>
       <c r="BU3">
-        <v>32.58492976308904</v>
+        <v>25.9249643155673</v>
       </c>
       <c r="BV3">
-        <v>29.69406466263287</v>
+        <v>22.93694240925779</v>
       </c>
       <c r="BW3">
-        <v>26.57174198317916</v>
+        <v>19.71781552692856</v>
       </c>
       <c r="BX3">
-        <v>24.67956050623787</v>
+        <v>17.72920866996908</v>
       </c>
       <c r="BY3">
-        <v>23.93287339048275</v>
+        <v>16.88650589141938</v>
       </c>
       <c r="BZ3">
-        <v>23.36825881116911</v>
+        <v>16.22632083986759</v>
       </c>
       <c r="CA3">
-        <v>22.38288370902426</v>
+        <v>15.14109832115481</v>
       </c>
       <c r="CB3">
-        <v>21.6258348003927</v>
+        <v>14.28472974384531</v>
       </c>
       <c r="CC3">
-        <v>21.25838901052036</v>
+        <v>13.8185379407105</v>
       </c>
       <c r="CD3">
-        <v>21.55958818546785</v>
+        <v>14.02161149114395</v>
       </c>
       <c r="CE3">
-        <v>22.78268944134634</v>
+        <v>15.14725283943443</v>
       </c>
       <c r="CF3">
-        <v>24.7816942989492</v>
+        <v>17.04369462712635</v>
       </c>
       <c r="CG3">
-        <v>27.83564357631916</v>
+        <v>19.99582171213567</v>
       </c>
       <c r="CH3">
-        <v>31.32024591338845</v>
+        <v>23.37936485788511</v>
       </c>
       <c r="CI3">
-        <v>34.71671698382382</v>
+        <v>26.67554621939716</v>
       </c>
       <c r="CJ3">
-        <v>37.48451113414482</v>
+        <v>29.3438071349347</v>
       </c>
       <c r="CK3">
-        <v>38.86854707018298</v>
+        <v>30.62283071322303</v>
       </c>
       <c r="CL3">
-        <v>39.50651675091847</v>
+        <v>31.15645123783662</v>
       </c>
       <c r="CM3">
-        <v>39.476246466962</v>
+        <v>31.02241065263608</v>
       </c>
       <c r="CN3">
-        <v>39.14691148526024</v>
+        <v>30.58977726509923</v>
       </c>
       <c r="CO3">
-        <v>38.69597294275239</v>
+        <v>30.03588680263502</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1265,241 +1265,241 @@
         <v>196027.8089144586</v>
       </c>
       <c r="O4">
-        <v>204061.6603275152</v>
+        <v>205061.1594476519</v>
       </c>
       <c r="P4">
-        <v>220093.5374703399</v>
+        <v>222142.4730103448</v>
       </c>
       <c r="Q4">
-        <v>227791.3909874351</v>
+        <v>230882.5684367957</v>
       </c>
       <c r="R4">
-        <v>235428.3334576887</v>
+        <v>239454.1523822866</v>
       </c>
       <c r="S4">
-        <v>266926.5319740871</v>
+        <v>271681.2850702453</v>
       </c>
       <c r="T4">
-        <v>275272.4532166521</v>
+        <v>280304.6673240738</v>
       </c>
       <c r="U4">
-        <v>283653.2145140418</v>
+        <v>288272.534184465</v>
       </c>
       <c r="V4">
-        <v>292063.5124337227</v>
+        <v>295482.331369767</v>
       </c>
       <c r="W4">
-        <v>300483.5825679018</v>
+        <v>302502.288260672</v>
       </c>
       <c r="X4">
-        <v>306348.8394282216</v>
+        <v>309654.2370926514</v>
       </c>
       <c r="Y4">
-        <v>314228.9285830302</v>
+        <v>328504.5937478673</v>
       </c>
       <c r="Z4">
-        <v>322039.5720699216</v>
+        <v>362914.0176681723</v>
       </c>
       <c r="AA4">
-        <v>329845.3824485384</v>
+        <v>401434.7498377926</v>
       </c>
       <c r="AB4">
-        <v>337715.5819845497</v>
+        <v>426956.0052739589</v>
       </c>
       <c r="AC4">
-        <v>318733.2394475083</v>
+        <v>412623.2821405843</v>
       </c>
       <c r="AD4">
-        <v>326703.6717364055</v>
+        <v>419473.0404047451</v>
       </c>
       <c r="AE4">
-        <v>334705.9906068277</v>
+        <v>425803.1874671596</v>
       </c>
       <c r="AF4">
-        <v>342689.221330605</v>
+        <v>433316.7463622336</v>
       </c>
       <c r="AG4">
-        <v>350754.4517441686</v>
+        <v>442194.4608687173</v>
       </c>
       <c r="AH4">
-        <v>354375.8373128256</v>
+        <v>447940.5906740123</v>
       </c>
       <c r="AI4">
-        <v>362993.0515563972</v>
+        <v>459201.5110182888</v>
       </c>
       <c r="AJ4">
-        <v>371940.0341752911</v>
+        <v>471030.4852458419</v>
       </c>
       <c r="AK4">
-        <v>381334.6524027818</v>
+        <v>483363.883210192</v>
       </c>
       <c r="AL4">
-        <v>391344.0728432703</v>
+        <v>496260.1017703174</v>
       </c>
       <c r="AM4">
-        <v>401750.648237134</v>
+        <v>510105.2979685136</v>
       </c>
       <c r="AN4">
-        <v>412450.996216896</v>
+        <v>524100.3538404885</v>
       </c>
       <c r="AO4">
-        <v>423776.6595177648</v>
+        <v>538569.5468106343</v>
       </c>
       <c r="AP4">
-        <v>435608.7682962547</v>
+        <v>553398.6307598195</v>
       </c>
       <c r="AQ4">
-        <v>446276.041818595</v>
+        <v>566927.4604220003</v>
       </c>
       <c r="AR4">
-        <v>455623.9695480776</v>
+        <v>579942.0568771884</v>
       </c>
       <c r="AS4">
-        <v>464528.5314954402</v>
+        <v>592404.3241843701</v>
       </c>
       <c r="AT4">
-        <v>472915.2143766719</v>
+        <v>604254.6440104519</v>
       </c>
       <c r="AU4">
-        <v>480738.2500852269</v>
+        <v>615460.8275696888</v>
       </c>
       <c r="AV4">
-        <v>490770.8690928735</v>
+        <v>628808.0773624503</v>
       </c>
       <c r="AW4">
-        <v>498875.9809622668</v>
+        <v>640932.6402820915</v>
       </c>
       <c r="AX4">
-        <v>506365.4636128941</v>
+        <v>652391.415992927</v>
       </c>
       <c r="AY4">
-        <v>511449.7612799099</v>
+        <v>661402.1107656367</v>
       </c>
       <c r="AZ4">
-        <v>515646.5688278084</v>
+        <v>669488.4616051657</v>
       </c>
       <c r="BA4">
-        <v>520892.8669852022</v>
+        <v>678592.4550751266</v>
       </c>
       <c r="BB4">
-        <v>527227.1244054531</v>
+        <v>689631.304189756</v>
       </c>
       <c r="BC4">
-        <v>534150.936504706</v>
+        <v>701234.4146979725</v>
       </c>
       <c r="BD4">
-        <v>541133.2764949085</v>
+        <v>712873.6056027861</v>
       </c>
       <c r="BE4">
-        <v>548360.9690320714</v>
+        <v>724738.1012371634</v>
       </c>
       <c r="BF4">
-        <v>556203.7434114264</v>
+        <v>737199.6869281329</v>
       </c>
       <c r="BG4">
-        <v>564689.1346957856</v>
+        <v>751066.3084124668</v>
       </c>
       <c r="BH4">
-        <v>574317.3843893363</v>
+        <v>766060.2005501325</v>
       </c>
       <c r="BI4">
-        <v>584595.0028983274</v>
+        <v>781689.361074789</v>
       </c>
       <c r="BJ4">
-        <v>595455.2195835775</v>
+        <v>797888.4565502958</v>
       </c>
       <c r="BK4">
-        <v>606784.6832296767</v>
+        <v>814545.5786151728</v>
       </c>
       <c r="BL4">
-        <v>618339.979061031</v>
+        <v>832183.1157554951</v>
       </c>
       <c r="BM4">
-        <v>630211.4334879944</v>
+        <v>850127.6115915377</v>
       </c>
       <c r="BN4">
-        <v>641527.4102357768</v>
+        <v>867509.1875116909</v>
       </c>
       <c r="BO4">
-        <v>652198.5396355379</v>
+        <v>884240.4455797914</v>
       </c>
       <c r="BP4">
-        <v>662486.2110376849</v>
+        <v>900585.016336814</v>
       </c>
       <c r="BQ4">
-        <v>672894.0755330021</v>
+        <v>917687.9293073762</v>
       </c>
       <c r="BR4">
-        <v>683343.958665722</v>
+        <v>934834.0535152019</v>
       </c>
       <c r="BS4">
-        <v>693568.6026315265</v>
+        <v>951759.5536544924</v>
       </c>
       <c r="BT4">
-        <v>703477.2526262567</v>
+        <v>968377.6233152276</v>
       </c>
       <c r="BU4">
-        <v>712826.0383854357</v>
+        <v>984448.9326784801</v>
       </c>
       <c r="BV4">
-        <v>721544.9187159273</v>
+        <v>1000730.582157382</v>
       </c>
       <c r="BW4">
-        <v>730158.9569067216</v>
+        <v>1016930.275515371</v>
       </c>
       <c r="BX4">
-        <v>739144.7367104241</v>
+        <v>1033531.239642103</v>
       </c>
       <c r="BY4">
-        <v>748568.0956748717</v>
+        <v>1050606.718255855</v>
       </c>
       <c r="BZ4">
-        <v>758120.6576628317</v>
+        <v>1067856.481627514</v>
       </c>
       <c r="CA4">
-        <v>767884.3773375556</v>
+        <v>1086178.26938479</v>
       </c>
       <c r="CB4">
-        <v>778020.2210489542</v>
+        <v>1104934.146111237</v>
       </c>
       <c r="CC4">
-        <v>788434.327244255</v>
+        <v>1124039.892779936</v>
       </c>
       <c r="CD4">
-        <v>799241.8542481257</v>
+        <v>1143620.279578571</v>
       </c>
       <c r="CE4">
-        <v>810505.8759603902</v>
+        <v>1163747.515935079</v>
       </c>
       <c r="CF4">
-        <v>822432.9962857717</v>
+        <v>1185620.601535605</v>
       </c>
       <c r="CG4">
-        <v>835051.9882029715</v>
+        <v>1208289.058001181</v>
       </c>
       <c r="CH4">
-        <v>847943.1623889296</v>
+        <v>1231337.15361812</v>
       </c>
       <c r="CI4">
-        <v>860923.0573197263</v>
+        <v>1254582.15345857</v>
       </c>
       <c r="CJ4">
-        <v>873767.2141742375</v>
+        <v>1277796.379358334</v>
       </c>
       <c r="CK4">
-        <v>886337.8869829995</v>
+        <v>1301742.348075641</v>
       </c>
       <c r="CL4">
-        <v>898943.7970040436</v>
+        <v>1325807.349000925</v>
       </c>
       <c r="CM4">
-        <v>911282.2373189562</v>
+        <v>1349671.426940263</v>
       </c>
       <c r="CN4">
-        <v>923456.1799486288</v>
+        <v>1373416.012986802</v>
       </c>
       <c r="CO4">
-        <v>935498.0923871007</v>
+        <v>1397048.622448626</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1542,241 +1542,241 @@
         <v>841.6434979927792</v>
       </c>
       <c r="O5">
-        <v>1067.313507820023</v>
+        <v>1067.377959174623</v>
       </c>
       <c r="P5">
-        <v>6648.743780425174</v>
+        <v>6648.888516293018</v>
       </c>
       <c r="Q5">
-        <v>6692.003663112508</v>
+        <v>6692.246893491353</v>
       </c>
       <c r="R5">
-        <v>6745.359161815473</v>
+        <v>6745.721410697191</v>
       </c>
       <c r="S5">
-        <v>21100.17610390599</v>
+        <v>21100.68122010895</v>
       </c>
       <c r="T5">
-        <v>21175.39295064672</v>
+        <v>21176.06505995277</v>
       </c>
       <c r="U5">
-        <v>21261.2759207007</v>
+        <v>21262.13566865758</v>
       </c>
       <c r="V5">
-        <v>21356.80465512216</v>
+        <v>21357.85007919374</v>
       </c>
       <c r="W5">
-        <v>21460.36284464217</v>
+        <v>21461.49684719602</v>
       </c>
       <c r="X5">
-        <v>20629.05454243854</v>
+        <v>20629.85802051304</v>
       </c>
       <c r="Y5">
-        <v>20742.67242720152</v>
+        <v>20741.94791610423</v>
       </c>
       <c r="Z5">
-        <v>20858.97739451372</v>
+        <v>20854.91918232272</v>
       </c>
       <c r="AA5">
-        <v>20978.19691278894</v>
+        <v>20970.46251387635</v>
       </c>
       <c r="AB5">
-        <v>21103.25008165907</v>
+        <v>21093.2834463315</v>
       </c>
       <c r="AC5">
-        <v>4548.017714172357</v>
+        <v>4537.049306351149</v>
       </c>
       <c r="AD5">
-        <v>4710.206591414806</v>
+        <v>4698.788133019242</v>
       </c>
       <c r="AE5">
-        <v>4914.237115152896</v>
+        <v>4902.551813119204</v>
       </c>
       <c r="AF5">
-        <v>5182.789148057101</v>
+        <v>5170.879167893521</v>
       </c>
       <c r="AG5">
-        <v>5542.475683114259</v>
+        <v>5530.336119257551</v>
       </c>
       <c r="AH5">
-        <v>2863.734674453223</v>
+        <v>2851.342796074126</v>
       </c>
       <c r="AI5">
-        <v>3487.902746331908</v>
+        <v>3475.238633803094</v>
       </c>
       <c r="AJ5">
-        <v>4277.698634823942</v>
+        <v>4264.744866426124</v>
       </c>
       <c r="AK5">
-        <v>5243.964283072548</v>
+        <v>5230.707368983592</v>
       </c>
       <c r="AL5">
-        <v>6384.888302526811</v>
+        <v>6371.318993579087</v>
       </c>
       <c r="AM5">
-        <v>7683.720031143395</v>
+        <v>7669.828574119255</v>
       </c>
       <c r="AN5">
-        <v>9107.502896823326</v>
+        <v>9093.287760228441</v>
       </c>
       <c r="AO5">
-        <v>10607.03356936429</v>
+        <v>10592.49592975919</v>
       </c>
       <c r="AP5">
-        <v>12118.24057318065</v>
+        <v>12103.38360334139</v>
       </c>
       <c r="AQ5">
-        <v>13565.42780069802</v>
+        <v>13550.25602808671</v>
       </c>
       <c r="AR5">
-        <v>14866.75908336775</v>
+        <v>14851.26526547222</v>
       </c>
       <c r="AS5">
-        <v>15941.6452986999</v>
+        <v>15925.83542609151</v>
       </c>
       <c r="AT5">
-        <v>16719.49644784487</v>
+        <v>16703.37657156867</v>
       </c>
       <c r="AU5">
-        <v>17148.41941374854</v>
+        <v>17131.99543433898</v>
       </c>
       <c r="AV5">
-        <v>19331.846441181</v>
+        <v>19315.12397257435</v>
       </c>
       <c r="AW5">
-        <v>19616.54595624566</v>
+        <v>19599.50376163373</v>
       </c>
       <c r="AX5">
-        <v>18959.94090898103</v>
+        <v>18942.58379150126</v>
       </c>
       <c r="AY5">
-        <v>18023.25483196843</v>
+        <v>18005.58718540855</v>
       </c>
       <c r="AZ5">
-        <v>16884.57817288068</v>
+        <v>16866.60398859566</v>
       </c>
       <c r="BA5">
-        <v>15633.74237926188</v>
+        <v>15615.46526487737</v>
       </c>
       <c r="BB5">
-        <v>14055.32802754306</v>
+        <v>14036.72143701217</v>
       </c>
       <c r="BC5">
-        <v>12859.40510266965</v>
+        <v>12840.47194213542</v>
       </c>
       <c r="BD5">
-        <v>11818.62333109557</v>
+        <v>11799.3662097145</v>
       </c>
       <c r="BE5">
-        <v>10999.86428481321</v>
+        <v>10980.28554407684</v>
       </c>
       <c r="BF5">
-        <v>10449.43113906889</v>
+        <v>10429.53288091462</v>
       </c>
       <c r="BG5">
-        <v>9884.21831837072</v>
+        <v>9863.984051103012</v>
       </c>
       <c r="BH5">
-        <v>9912.060586218271</v>
+        <v>9891.492005218415</v>
       </c>
       <c r="BI5">
-        <v>10203.36367442762</v>
+        <v>10182.46230949343</v>
       </c>
       <c r="BJ5">
-        <v>10717.98175435246</v>
+        <v>10696.74899011261</v>
       </c>
       <c r="BK5">
-        <v>11406.96051210357</v>
+        <v>11385.39760665719</v>
       </c>
       <c r="BL5">
-        <v>11989.06099830531</v>
+        <v>11967.15951455483</v>
       </c>
       <c r="BM5">
-        <v>12872.84443798706</v>
+        <v>12850.60543466904</v>
       </c>
       <c r="BN5">
-        <v>13781.28260032206</v>
+        <v>13758.70705607637</v>
       </c>
       <c r="BO5">
-        <v>14670.62676086994</v>
+        <v>14647.71558781229</v>
       </c>
       <c r="BP5">
-        <v>15501.32070776624</v>
+        <v>15478.07476426947</v>
       </c>
       <c r="BQ5">
-        <v>16078.63360236657</v>
+        <v>16055.04005707327</v>
       </c>
       <c r="BR5">
-        <v>16693.89305482452</v>
+        <v>16669.95268777067</v>
       </c>
       <c r="BS5">
-        <v>17164.89306417074</v>
+        <v>17140.60663857036</v>
       </c>
       <c r="BT5">
-        <v>17477.00540829488</v>
+        <v>17452.37368185749</v>
       </c>
       <c r="BU5">
-        <v>17623.7161227727</v>
+        <v>17598.73985903091</v>
       </c>
       <c r="BV5">
-        <v>17450.95110930589</v>
+        <v>17425.61673350647</v>
       </c>
       <c r="BW5">
-        <v>17282.28618924303</v>
+        <v>17256.59451023968</v>
       </c>
       <c r="BX5">
-        <v>16981.64913587502</v>
+        <v>16955.60100273897</v>
       </c>
       <c r="BY5">
-        <v>16577.57313506626</v>
+        <v>16551.16944823026</v>
       </c>
       <c r="BZ5">
-        <v>16105.52578767829</v>
+        <v>16078.76750949685</v>
       </c>
       <c r="CA5">
-        <v>15441.53812989231</v>
+        <v>15414.40813912413</v>
       </c>
       <c r="CB5">
-        <v>14954.96405464389</v>
+        <v>14927.46346425973</v>
       </c>
       <c r="CC5">
-        <v>14520.84262199598</v>
+        <v>14492.97262965029</v>
       </c>
       <c r="CD5">
-        <v>14172.42670461119</v>
+        <v>14144.18859412355</v>
       </c>
       <c r="CE5">
-        <v>13934.43562909497</v>
+        <v>13905.83076709068</v>
       </c>
       <c r="CF5">
-        <v>13636.55368186579</v>
+        <v>13607.56061940195</v>
       </c>
       <c r="CG5">
-        <v>13652.87293292265</v>
+        <v>13623.49316991063</v>
       </c>
       <c r="CH5">
-        <v>13792.99780088273</v>
+        <v>13763.23287013216</v>
       </c>
       <c r="CI5">
-        <v>14043.35730337669</v>
+        <v>14013.20873787401</v>
       </c>
       <c r="CJ5">
-        <v>14384.13454267102</v>
+        <v>14353.60383527226</v>
       </c>
       <c r="CK5">
-        <v>14538.52250782571</v>
+        <v>14507.58598014426</v>
       </c>
       <c r="CL5">
-        <v>14985.77862803919</v>
+        <v>14954.43755713589</v>
       </c>
       <c r="CM5">
-        <v>15446.41574791556</v>
+        <v>15414.67122657487</v>
       </c>
       <c r="CN5">
-        <v>15894.98018324305</v>
+        <v>15862.83307569016</v>
       </c>
       <c r="CO5">
-        <v>16308.64370042555</v>
+        <v>16276.09460719779</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Results_world_Avg.xlsx
+++ b/Results/Results_world_Avg.xlsx
@@ -7491,14 +7491,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CO55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO33" zoomScale="79" workbookViewId="0">
-      <selection activeCell="AQ52" sqref="AQ52"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="CO4" sqref="CO4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="73" max="87" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="89" max="93" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:93" x14ac:dyDescent="0.35">
@@ -12227,359 +12230,359 @@
         <v>230.2168875514196</v>
       </c>
       <c r="E52">
-        <f>D52+E10</f>
+        <f t="shared" ref="E52:AJ52" si="13">D52+E10</f>
         <v>516.35210779704755</v>
       </c>
       <c r="F52">
-        <f>E52+F10</f>
+        <f t="shared" si="13"/>
         <v>993.25333071804971</v>
       </c>
       <c r="G52">
-        <f>F52+G10</f>
+        <f t="shared" si="13"/>
         <v>1339.864315458379</v>
       </c>
       <c r="H52">
-        <f>G52+H10</f>
+        <f t="shared" si="13"/>
         <v>2301.8194525377803</v>
       </c>
       <c r="I52">
-        <f>H52+I10</f>
+        <f t="shared" si="13"/>
         <v>2860.3389563275609</v>
       </c>
       <c r="J52">
-        <f>I52+J10</f>
+        <f t="shared" si="13"/>
         <v>3478.2736637600929</v>
       </c>
       <c r="K52">
-        <f>J52+K10</f>
+        <f t="shared" si="13"/>
         <v>4178.4691897775247</v>
       </c>
       <c r="L52">
-        <f>K52+L10</f>
+        <f t="shared" si="13"/>
         <v>4749.0683301408289</v>
       </c>
       <c r="M52">
-        <f>L52+M10</f>
+        <f t="shared" si="13"/>
         <v>5442.0680086035127</v>
       </c>
       <c r="N52">
-        <f>M52+N10</f>
+        <f t="shared" si="13"/>
         <v>5790.0963818375685</v>
       </c>
       <c r="O52">
-        <f>N52+O10</f>
+        <f t="shared" si="13"/>
         <v>6208.126241321952</v>
       </c>
       <c r="P52">
-        <f>O52+P10</f>
+        <f t="shared" si="13"/>
         <v>7016.1606044530918</v>
       </c>
       <c r="Q52">
-        <f>P52+Q10</f>
+        <f t="shared" si="13"/>
         <v>7845.8615994539805</v>
       </c>
       <c r="R52">
-        <f>Q52+R10</f>
+        <f t="shared" si="13"/>
         <v>8700.2569183358646</v>
       </c>
       <c r="S52">
-        <f>R52+S10</f>
+        <f t="shared" si="13"/>
         <v>10749.240998851066</v>
       </c>
       <c r="T52">
-        <f>S52+T10</f>
+        <f t="shared" si="13"/>
         <v>12800.66885246044</v>
       </c>
       <c r="U52">
-        <f>T52+U10</f>
+        <f t="shared" si="13"/>
         <v>14866.886712040021</v>
       </c>
       <c r="V52">
-        <f>U52+V10</f>
+        <f t="shared" si="13"/>
         <v>16962.964482256506</v>
       </c>
       <c r="W52">
-        <f>V52+W10</f>
+        <f t="shared" si="13"/>
         <v>19087.789393184059</v>
       </c>
       <c r="X52">
-        <f>W52+X10</f>
+        <f t="shared" si="13"/>
         <v>21062.968630747957</v>
       </c>
       <c r="Y52">
-        <f>X52+Y10</f>
+        <f t="shared" si="13"/>
         <v>23044.598363125606</v>
       </c>
       <c r="Z52">
-        <f>Y52+Z10</f>
+        <f t="shared" si="13"/>
         <v>24996.316392752648</v>
       </c>
       <c r="AA52">
-        <f>Z52+AA10</f>
+        <f t="shared" si="13"/>
         <v>26915.570298407794</v>
       </c>
       <c r="AB52">
-        <f>AA52+AB10</f>
+        <f t="shared" si="13"/>
         <v>28868.113954913424</v>
       </c>
       <c r="AC52">
-        <f>AB52+AC10</f>
+        <f t="shared" si="13"/>
         <v>29563.650061214681</v>
       </c>
       <c r="AD52">
-        <f>AC52+AD10</f>
+        <f t="shared" si="13"/>
         <v>30359.514812007648</v>
       </c>
       <c r="AE52">
-        <f>AD52+AE10</f>
+        <f t="shared" si="13"/>
         <v>31252.191936676969</v>
       </c>
       <c r="AF52">
-        <f>AE52+AF10</f>
+        <f t="shared" si="13"/>
         <v>32124.676600637387</v>
       </c>
       <c r="AG52">
-        <f>AF52+AG10</f>
+        <f t="shared" si="13"/>
         <v>32950.575642875818</v>
       </c>
       <c r="AH52">
-        <f>AG52+AH10</f>
+        <f t="shared" si="13"/>
         <v>33581.575593733767</v>
       </c>
       <c r="AI52">
-        <f>AH52+AI10</f>
+        <f t="shared" si="13"/>
         <v>34172.802256058349</v>
       </c>
       <c r="AJ52">
-        <f>AI52+AJ10</f>
+        <f t="shared" si="13"/>
         <v>34715.506759820615</v>
       </c>
       <c r="AK52">
-        <f>AJ52+AK10</f>
+        <f t="shared" ref="AK52:BP52" si="14">AJ52+AK10</f>
         <v>35220.356239502667</v>
       </c>
       <c r="AL52">
-        <f>AK52+AL10</f>
+        <f t="shared" si="14"/>
         <v>35806.566386990889</v>
       </c>
       <c r="AM52">
-        <f>AL52+AM10</f>
+        <f t="shared" si="14"/>
         <v>36598.358397847078</v>
       </c>
       <c r="AN52">
-        <f>AM52+AN10</f>
+        <f t="shared" si="14"/>
         <v>37619.450154383587</v>
       </c>
       <c r="AO52">
-        <f>AN52+AO10</f>
+        <f t="shared" si="14"/>
         <v>38969.586523843842</v>
       </c>
       <c r="AP52">
-        <f>AO52+AP10</f>
+        <f t="shared" si="14"/>
         <v>40744.513611727307</v>
       </c>
       <c r="AQ52">
-        <f>AP52+AQ10</f>
+        <f t="shared" si="14"/>
         <v>42735.571059385329</v>
       </c>
       <c r="AR52">
-        <f>AQ52+AR10</f>
+        <f t="shared" si="14"/>
         <v>44744.332251303349</v>
       </c>
       <c r="AS52">
-        <f>AR52+AS10</f>
+        <f t="shared" si="14"/>
         <v>46747.173237249823</v>
       </c>
       <c r="AT52">
-        <f>AS52+AT10</f>
+        <f t="shared" si="14"/>
         <v>48721.643046495628</v>
       </c>
       <c r="AU52">
-        <f>AT52+AU10</f>
+        <f t="shared" si="14"/>
         <v>50648.252243642353</v>
       </c>
       <c r="AV52">
-        <f>AU52+AV10</f>
+        <f t="shared" si="14"/>
         <v>52554.820607473936</v>
       </c>
       <c r="AW52">
-        <f>AV52+AW10</f>
+        <f t="shared" si="14"/>
         <v>54426.349901387526</v>
       </c>
       <c r="AX52">
-        <f>AW52+AX10</f>
+        <f t="shared" si="14"/>
         <v>56389.098343492515</v>
       </c>
       <c r="AY52">
-        <f>AX52+AY10</f>
+        <f t="shared" si="14"/>
         <v>58063.594951519401</v>
       </c>
       <c r="AZ52">
-        <f>AY52+AZ10</f>
+        <f t="shared" si="14"/>
         <v>59342.431863464786</v>
       </c>
       <c r="BA52">
-        <f>AZ52+BA10</f>
+        <f t="shared" si="14"/>
         <v>60446.801734542045</v>
       </c>
       <c r="BB52">
-        <f>BA52+BB10</f>
+        <f t="shared" si="14"/>
         <v>61535.075119431771</v>
       </c>
       <c r="BC52">
-        <f>BB52+BC10</f>
+        <f t="shared" si="14"/>
         <v>62592.578411129129</v>
       </c>
       <c r="BD52">
-        <f>BC52+BD10</f>
+        <f t="shared" si="14"/>
         <v>63569.681388669429</v>
       </c>
       <c r="BE52">
-        <f>BD52+BE10</f>
+        <f t="shared" si="14"/>
         <v>64450.807030403324</v>
       </c>
       <c r="BF52">
-        <f>BE52+BF10</f>
+        <f t="shared" si="14"/>
         <v>65270.219291586145</v>
       </c>
       <c r="BG52">
-        <f>BF52+BG10</f>
+        <f t="shared" si="14"/>
         <v>66048.837531002981</v>
       </c>
       <c r="BH52">
-        <f>BG52+BH10</f>
+        <f t="shared" si="14"/>
         <v>66867.317933350496</v>
       </c>
       <c r="BI52">
-        <f>BH52+BI10</f>
+        <f t="shared" si="14"/>
         <v>67810.225440975773</v>
       </c>
       <c r="BJ52">
-        <f>BI52+BJ10</f>
+        <f t="shared" si="14"/>
         <v>68962.048347616888</v>
       </c>
       <c r="BK52">
-        <f>BJ52+BK10</f>
+        <f t="shared" si="14"/>
         <v>70380.558853539464</v>
       </c>
       <c r="BL52">
-        <f>BK52+BL10</f>
+        <f t="shared" si="14"/>
         <v>72077.244471783546</v>
       </c>
       <c r="BM52">
-        <f>BL52+BM10</f>
+        <f t="shared" si="14"/>
         <v>74043.907306125315</v>
       </c>
       <c r="BN52">
-        <f>BM52+BN10</f>
+        <f t="shared" si="14"/>
         <v>76170.346734780091</v>
       </c>
       <c r="BO52">
-        <f>BN52+BO10</f>
+        <f t="shared" si="14"/>
         <v>78341.632280387756</v>
       </c>
       <c r="BP52">
-        <f>BO52+BP10</f>
+        <f t="shared" si="14"/>
         <v>80504.053287158444</v>
       </c>
       <c r="BQ52">
-        <f>BP52+BQ10</f>
+        <f t="shared" ref="BQ52:CO52" si="15">BP52+BQ10</f>
         <v>82626.910586288417</v>
       </c>
       <c r="BR52">
-        <f>BQ52+BR10</f>
+        <f t="shared" si="15"/>
         <v>84717.773725306135</v>
       </c>
       <c r="BS52">
-        <f>BR52+BS10</f>
+        <f t="shared" si="15"/>
         <v>86776.835699923467</v>
       </c>
       <c r="BT52">
-        <f>BS52+BT10</f>
+        <f t="shared" si="15"/>
         <v>88793.514953081845</v>
       </c>
       <c r="BU52">
-        <f>BT52+BU10</f>
+        <f t="shared" si="15"/>
         <v>90714.220830467326</v>
       </c>
       <c r="BV52">
-        <f>BU52+BV10</f>
+        <f t="shared" si="15"/>
         <v>92418.926990880063</v>
       </c>
       <c r="BW52">
-        <f>BV52+BW10</f>
+        <f t="shared" si="15"/>
         <v>93889.881923778812</v>
       </c>
       <c r="BX52">
-        <f>BW52+BX10</f>
+        <f t="shared" si="15"/>
         <v>95216.65273077786</v>
       </c>
       <c r="BY52">
-        <f>BX52+BY10</f>
+        <f t="shared" si="15"/>
         <v>96482.641257252515</v>
       </c>
       <c r="BZ52">
-        <f>BY52+BZ10</f>
+        <f t="shared" si="15"/>
         <v>97701.157354677576</v>
       </c>
       <c r="CA52">
-        <f>BZ52+CA10</f>
+        <f t="shared" si="15"/>
         <v>98842.411559943459</v>
       </c>
       <c r="CB52">
-        <f>CA52+CB10</f>
+        <f t="shared" si="15"/>
         <v>99922.00249857911</v>
       </c>
       <c r="CC52">
-        <f>CB52+CC10</f>
+        <f t="shared" si="15"/>
         <v>100968.30344489818</v>
       </c>
       <c r="CD52">
-        <f>CC52+CD10</f>
+        <f t="shared" si="15"/>
         <v>102029.97777285239</v>
       </c>
       <c r="CE52">
-        <f>CD52+CE10</f>
+        <f t="shared" si="15"/>
         <v>103174.10596958266</v>
       </c>
       <c r="CF52">
-        <f>CE52+CF10</f>
+        <f t="shared" si="15"/>
         <v>104457.97641838793</v>
       </c>
       <c r="CG52">
-        <f>CF52+CG10</f>
+        <f t="shared" si="15"/>
         <v>105957.15848063759</v>
       </c>
       <c r="CH52">
-        <f>CG52+CH10</f>
+        <f t="shared" si="15"/>
         <v>107703.00015834795</v>
       </c>
       <c r="CI52">
-        <f>CH52+CI10</f>
+        <f t="shared" si="15"/>
         <v>109689.11712909822</v>
       </c>
       <c r="CJ52">
-        <f>CI52+CJ10</f>
+        <f t="shared" si="15"/>
         <v>111869.81053296239</v>
       </c>
       <c r="CK52">
-        <f>CJ52+CK10</f>
+        <f t="shared" si="15"/>
         <v>114145.69344306739</v>
       </c>
       <c r="CL52">
-        <f>CK52+CL10</f>
+        <f t="shared" si="15"/>
         <v>116460.916283517</v>
       </c>
       <c r="CM52">
-        <f>CL52+CM10</f>
+        <f t="shared" si="15"/>
         <v>118766.91786471207</v>
       </c>
       <c r="CN52">
-        <f>CM52+CN10</f>
+        <f t="shared" si="15"/>
         <v>121041.99381901827</v>
       </c>
       <c r="CO52">
-        <f>CN52+CO10</f>
+        <f t="shared" si="15"/>
         <v>123277.34850984922</v>
       </c>
     </row>
@@ -12592,359 +12595,359 @@
         <v>14.520393767232637</v>
       </c>
       <c r="E53">
-        <f>D53+E11</f>
+        <f t="shared" ref="E53:AJ53" si="16">D53+E11</f>
         <v>32.665599165888288</v>
       </c>
       <c r="F53">
-        <f>E53+F11</f>
+        <f t="shared" si="16"/>
         <v>63.552458998314499</v>
       </c>
       <c r="G53">
-        <f>F53+G11</f>
+        <f t="shared" si="16"/>
         <v>85.689716332498435</v>
       </c>
       <c r="H53">
-        <f>G53+H11</f>
+        <f t="shared" si="16"/>
         <v>149.03623416134872</v>
       </c>
       <c r="I53">
-        <f>H53+I11</f>
+        <f t="shared" si="16"/>
         <v>185.27113139599035</v>
       </c>
       <c r="J53">
-        <f>I53+J11</f>
+        <f t="shared" si="16"/>
         <v>225.40456095157671</v>
       </c>
       <c r="K53">
-        <f>J53+K11</f>
+        <f t="shared" si="16"/>
         <v>270.96891005862375</v>
       </c>
       <c r="L53">
-        <f>K53+L11</f>
+        <f t="shared" si="16"/>
         <v>307.79588663309289</v>
       </c>
       <c r="M53">
-        <f>L53+M11</f>
+        <f t="shared" si="16"/>
         <v>352.79652353098339</v>
       </c>
       <c r="N53">
-        <f>M53+N11</f>
+        <f t="shared" si="16"/>
         <v>374.52773776841553</v>
       </c>
       <c r="O53">
-        <f>N53+O11</f>
+        <f t="shared" si="16"/>
         <v>400.82665118838446</v>
       </c>
       <c r="P53">
-        <f>O53+P11</f>
+        <f t="shared" si="16"/>
         <v>453.11999921503843</v>
       </c>
       <c r="Q53">
-        <f>P53+Q11</f>
+        <f t="shared" si="16"/>
         <v>506.59108273861784</v>
       </c>
       <c r="R53">
-        <f>Q53+R11</f>
+        <f t="shared" si="16"/>
         <v>561.35368518518146</v>
       </c>
       <c r="S53">
-        <f>R53+S11</f>
+        <f t="shared" si="16"/>
         <v>695.90736732300172</v>
       </c>
       <c r="T53">
-        <f>S53+T11</f>
+        <f t="shared" si="16"/>
         <v>830.15626548196042</v>
       </c>
       <c r="U53">
-        <f>T53+U11</f>
+        <f t="shared" si="16"/>
         <v>964.78801720523677</v>
       </c>
       <c r="V53">
-        <f>U53+V11</f>
+        <f t="shared" si="16"/>
         <v>1100.7155888601708</v>
       </c>
       <c r="W53">
-        <f>V53+W11</f>
+        <f t="shared" si="16"/>
         <v>1237.9117685793276</v>
       </c>
       <c r="X53">
-        <f>W53+X11</f>
+        <f t="shared" si="16"/>
         <v>1364.519145728387</v>
       </c>
       <c r="Y53">
-        <f>X53+Y11</f>
+        <f t="shared" si="16"/>
         <v>1491.17382183104</v>
       </c>
       <c r="Z53">
-        <f>Y53+Z11</f>
+        <f t="shared" si="16"/>
         <v>1615.654074564884</v>
       </c>
       <c r="AA53">
-        <f>Z53+AA11</f>
+        <f t="shared" si="16"/>
         <v>1737.920291687177</v>
       </c>
       <c r="AB53">
-        <f>AA53+AB11</f>
+        <f t="shared" si="16"/>
         <v>1862.2465706476855</v>
       </c>
       <c r="AC53">
-        <f>AB53+AC11</f>
+        <f t="shared" si="16"/>
         <v>1901.8309686806272</v>
       </c>
       <c r="AD53">
-        <f>AC53+AD11</f>
+        <f t="shared" si="16"/>
         <v>1947.7857293114357</v>
       </c>
       <c r="AE53">
-        <f>AD53+AE11</f>
+        <f t="shared" si="16"/>
         <v>1999.8935905041822</v>
       </c>
       <c r="AF53">
-        <f>AE53+AF11</f>
+        <f t="shared" si="16"/>
         <v>2050.8383943493554</v>
       </c>
       <c r="AG53">
-        <f>AF53+AG11</f>
+        <f t="shared" si="16"/>
         <v>2098.9680565998706</v>
       </c>
       <c r="AH53">
-        <f>AG53+AH11</f>
+        <f t="shared" si="16"/>
         <v>2134.1458196204921</v>
       </c>
       <c r="AI53">
-        <f>AH53+AI11</f>
+        <f t="shared" si="16"/>
         <v>2166.9335311804184</v>
       </c>
       <c r="AJ53">
-        <f>AI53+AJ11</f>
+        <f t="shared" si="16"/>
         <v>2196.7847736941449</v>
       </c>
       <c r="AK53">
-        <f>AJ53+AK11</f>
+        <f t="shared" ref="AK53:BP53" si="17">AJ53+AK11</f>
         <v>2224.3671900152235</v>
       </c>
       <c r="AL53">
-        <f>AK53+AL11</f>
+        <f t="shared" si="17"/>
         <v>2257.1335324491879</v>
       </c>
       <c r="AM53">
-        <f>AL53+AM11</f>
+        <f t="shared" si="17"/>
         <v>2302.8504587466496</v>
       </c>
       <c r="AN53">
-        <f>AM53+AN11</f>
+        <f t="shared" si="17"/>
         <v>2363.0004356333911</v>
       </c>
       <c r="AO53">
-        <f>AN53+AO11</f>
+        <f t="shared" si="17"/>
         <v>2443.8170457720798</v>
       </c>
       <c r="AP53">
-        <f>AO53+AP11</f>
+        <f t="shared" si="17"/>
         <v>2551.2826295645855</v>
       </c>
       <c r="AQ53">
-        <f>AP53+AQ11</f>
+        <f t="shared" si="17"/>
         <v>2672.3509390062127</v>
       </c>
       <c r="AR53">
-        <f>AQ53+AR11</f>
+        <f t="shared" si="17"/>
         <v>2794.611925552425</v>
       </c>
       <c r="AS53">
-        <f>AR53+AS11</f>
+        <f t="shared" si="17"/>
         <v>2916.581752745124</v>
       </c>
       <c r="AT53">
-        <f>AS53+AT11</f>
+        <f t="shared" si="17"/>
         <v>3036.8484477085885</v>
       </c>
       <c r="AU53">
-        <f>AT53+AU11</f>
+        <f t="shared" si="17"/>
         <v>3154.184083334223</v>
       </c>
       <c r="AV53">
-        <f>AU53+AV11</f>
+        <f t="shared" si="17"/>
         <v>3270.3633431780122</v>
       </c>
       <c r="AW53">
-        <f>AV53+AW11</f>
+        <f t="shared" si="17"/>
         <v>3384.4018194866671</v>
       </c>
       <c r="AX53">
-        <f>AW53+AX11</f>
+        <f t="shared" si="17"/>
         <v>3505.1714439619068</v>
       </c>
       <c r="AY53">
-        <f>AX53+AY11</f>
+        <f t="shared" si="17"/>
         <v>3607.942391771724</v>
       </c>
       <c r="AZ53">
-        <f>AY53+AZ11</f>
+        <f t="shared" si="17"/>
         <v>3685.9944480410813</v>
       </c>
       <c r="BA53">
-        <f>AZ53+BA11</f>
+        <f t="shared" si="17"/>
         <v>3753.1485047744163</v>
       </c>
       <c r="BB53">
-        <f>BA53+BB11</f>
+        <f t="shared" si="17"/>
         <v>3819.1721520325468</v>
       </c>
       <c r="BC53">
-        <f>BB53+BC11</f>
+        <f t="shared" si="17"/>
         <v>3883.271421954938</v>
       </c>
       <c r="BD53">
-        <f>BC53+BD11</f>
+        <f t="shared" si="17"/>
         <v>3942.3449206231139</v>
       </c>
       <c r="BE53">
-        <f>BD53+BE11</f>
+        <f t="shared" si="17"/>
         <v>3995.4211959850054</v>
       </c>
       <c r="BF53">
-        <f>BE53+BF11</f>
+        <f t="shared" si="17"/>
         <v>4044.6451063613417</v>
       </c>
       <c r="BG53">
-        <f>BF53+BG11</f>
+        <f t="shared" si="17"/>
         <v>4091.2023447907354</v>
       </c>
       <c r="BH53">
-        <f>BG53+BH11</f>
+        <f t="shared" si="17"/>
         <v>4140.2605873710836</v>
       </c>
       <c r="BI53">
-        <f>BH53+BI11</f>
+        <f t="shared" si="17"/>
         <v>4197.1089445657635</v>
       </c>
       <c r="BJ53">
-        <f>BI53+BJ11</f>
+        <f t="shared" si="17"/>
         <v>4267.0310082543338</v>
       </c>
       <c r="BK53">
-        <f>BJ53+BK11</f>
+        <f t="shared" si="17"/>
         <v>4353.6395340784611</v>
       </c>
       <c r="BL53">
-        <f>BK53+BL11</f>
+        <f t="shared" si="17"/>
         <v>4457.5583416530253</v>
       </c>
       <c r="BM53">
-        <f>BL53+BM11</f>
+        <f t="shared" si="17"/>
         <v>4578.3669064300848</v>
       </c>
       <c r="BN53">
-        <f>BM53+BN11</f>
+        <f t="shared" si="17"/>
         <v>4709.1759865713311</v>
       </c>
       <c r="BO53">
-        <f>BN53+BO11</f>
+        <f t="shared" si="17"/>
         <v>4842.7999000231994</v>
       </c>
       <c r="BP53">
-        <f>BO53+BP11</f>
+        <f t="shared" si="17"/>
         <v>4975.8788158972702</v>
       </c>
       <c r="BQ53">
-        <f>BP53+BQ11</f>
+        <f t="shared" ref="BQ53:CO53" si="18">BP53+BQ11</f>
         <v>5106.422513647849</v>
       </c>
       <c r="BR53">
-        <f>BQ53+BR11</f>
+        <f t="shared" si="18"/>
         <v>5234.9646745562814</v>
       </c>
       <c r="BS53">
-        <f>BR53+BS11</f>
+        <f t="shared" si="18"/>
         <v>5361.5132896692494</v>
       </c>
       <c r="BT53">
-        <f>BS53+BT11</f>
+        <f t="shared" si="18"/>
         <v>5485.4026706455197</v>
       </c>
       <c r="BU53">
-        <f>BT53+BU11</f>
+        <f t="shared" si="18"/>
         <v>5603.2787803673782</v>
       </c>
       <c r="BV53">
-        <f>BU53+BV11</f>
+        <f t="shared" si="18"/>
         <v>5707.5688965352183</v>
       </c>
       <c r="BW53">
-        <f>BV53+BW11</f>
+        <f t="shared" si="18"/>
         <v>5797.2222267475936</v>
       </c>
       <c r="BX53">
-        <f>BW53+BX11</f>
+        <f t="shared" si="18"/>
         <v>5877.8337223324925</v>
       </c>
       <c r="BY53">
-        <f>BX53+BY11</f>
+        <f t="shared" si="18"/>
         <v>5954.6136012571669</v>
       </c>
       <c r="BZ53">
-        <f>BY53+BZ11</f>
+        <f t="shared" si="18"/>
         <v>6028.3917385159248</v>
       </c>
       <c r="CA53">
-        <f>BZ53+CA11</f>
+        <f t="shared" si="18"/>
         <v>6097.2355658511924</v>
       </c>
       <c r="CB53">
-        <f>CA53+CB11</f>
+        <f t="shared" si="18"/>
         <v>6162.1856406183742</v>
       </c>
       <c r="CC53">
-        <f>CB53+CC11</f>
+        <f t="shared" si="18"/>
         <v>6225.0160258280757</v>
       </c>
       <c r="CD53">
-        <f>CC53+CD11</f>
+        <f t="shared" si="18"/>
         <v>6288.7697496322353</v>
       </c>
       <c r="CE53">
-        <f>CD53+CE11</f>
+        <f t="shared" si="18"/>
         <v>6357.6415604456361</v>
       </c>
       <c r="CF53">
-        <f>CE53+CF11</f>
+        <f t="shared" si="18"/>
         <v>6435.1361480361238</v>
       </c>
       <c r="CG53">
-        <f>CF53+CG11</f>
+        <f t="shared" si="18"/>
         <v>6526.0535219398207</v>
       </c>
       <c r="CH53">
-        <f>CG53+CH11</f>
+        <f t="shared" si="18"/>
         <v>6632.3552527221691</v>
       </c>
       <c r="CI53">
-        <f>CH53+CI11</f>
+        <f t="shared" si="18"/>
         <v>6753.6441221984533</v>
       </c>
       <c r="CJ53">
-        <f>CI53+CJ11</f>
+        <f t="shared" si="18"/>
         <v>6887.0650900112278</v>
       </c>
       <c r="CK53">
-        <f>CJ53+CK11</f>
+        <f t="shared" si="18"/>
         <v>7026.3015460081315</v>
       </c>
       <c r="CL53">
-        <f>CK53+CL11</f>
+        <f t="shared" si="18"/>
         <v>7167.9642777269046</v>
       </c>
       <c r="CM53">
-        <f>CL53+CM11</f>
+        <f t="shared" si="18"/>
         <v>7309.0175512209353</v>
       </c>
       <c r="CN53">
-        <f>CM53+CN11</f>
+        <f t="shared" si="18"/>
         <v>7448.103719185412</v>
       </c>
       <c r="CO53">
-        <f>CN53+CO11</f>
+        <f t="shared" si="18"/>
         <v>7584.6714476977613</v>
       </c>
     </row>
@@ -12957,359 +12960,359 @@
         <v>22617594.114660323</v>
       </c>
       <c r="E54">
-        <f>D54+E12</f>
+        <f t="shared" ref="E54:AJ54" si="19">D54+E12</f>
         <v>47303935.99347195</v>
       </c>
       <c r="F54">
-        <f>E54+F12</f>
+        <f t="shared" si="19"/>
         <v>73494260.669825852</v>
       </c>
       <c r="G54">
-        <f>F54+G12</f>
+        <f t="shared" si="19"/>
         <v>99750392.529902458</v>
       </c>
       <c r="H54">
-        <f>G54+H12</f>
+        <f t="shared" si="19"/>
         <v>128318289.0228375</v>
       </c>
       <c r="I54">
-        <f>H54+I12</f>
+        <f t="shared" si="19"/>
         <v>156410313.28802493</v>
       </c>
       <c r="J54">
-        <f>I54+J12</f>
+        <f t="shared" si="19"/>
         <v>186776167.58648056</v>
       </c>
       <c r="K54">
-        <f>J54+K12</f>
+        <f t="shared" si="19"/>
         <v>219660000.7657913</v>
       </c>
       <c r="L54">
-        <f>K54+L12</f>
+        <f t="shared" si="19"/>
         <v>254099544.69228801</v>
       </c>
       <c r="M54">
-        <f>L54+M12</f>
+        <f t="shared" si="19"/>
         <v>290019098.58614057</v>
       </c>
       <c r="N54">
-        <f>M54+N12</f>
+        <f t="shared" si="19"/>
         <v>327578053.26072568</v>
       </c>
       <c r="O54">
-        <f>N54+O12</f>
+        <f t="shared" si="19"/>
         <v>366867799.11802459</v>
       </c>
       <c r="P54">
-        <f>O54+P12</f>
+        <f t="shared" si="19"/>
         <v>409430326.96190131</v>
       </c>
       <c r="Q54">
-        <f>P54+Q12</f>
+        <f t="shared" si="19"/>
         <v>453667458.27041638</v>
       </c>
       <c r="R54">
-        <f>Q54+R12</f>
+        <f t="shared" si="19"/>
         <v>499546906.22104919</v>
       </c>
       <c r="S54">
-        <f>R54+S12</f>
+        <f t="shared" si="19"/>
         <v>551601077.14910948</v>
       </c>
       <c r="T54">
-        <f>S54+T12</f>
+        <f t="shared" si="19"/>
         <v>605307489.28216386</v>
       </c>
       <c r="U54">
-        <f>T54+U12</f>
+        <f t="shared" si="19"/>
         <v>660540545.78225875</v>
       </c>
       <c r="V54">
-        <f>U54+V12</f>
+        <f t="shared" si="19"/>
         <v>717155000.39721954</v>
       </c>
       <c r="W54">
-        <f>V54+W12</f>
+        <f t="shared" si="19"/>
         <v>775114479.70098913</v>
       </c>
       <c r="X54">
-        <f>W54+X12</f>
+        <f t="shared" si="19"/>
         <v>834444273.3673116</v>
       </c>
       <c r="Y54">
-        <f>X54+Y12</f>
+        <f t="shared" si="19"/>
         <v>897385797.91576612</v>
       </c>
       <c r="Z54">
-        <f>Y54+Z12</f>
+        <f t="shared" si="19"/>
         <v>966920172.73662901</v>
       </c>
       <c r="AA54">
-        <f>Z54+AA12</f>
+        <f t="shared" si="19"/>
         <v>1043835125.0459745</v>
       </c>
       <c r="AB54">
-        <f>AA54+AB12</f>
+        <f t="shared" si="19"/>
         <v>1125639953.3452299</v>
       </c>
       <c r="AC54">
-        <f>AB54+AC12</f>
+        <f t="shared" si="19"/>
         <v>1204698629.9555445</v>
       </c>
       <c r="AD54">
-        <f>AC54+AD12</f>
+        <f t="shared" si="19"/>
         <v>1285069721.174787</v>
       </c>
       <c r="AE54">
-        <f>AD54+AE12</f>
+        <f t="shared" si="19"/>
         <v>1366653669.4264951</v>
       </c>
       <c r="AF54">
-        <f>AE54+AF12</f>
+        <f t="shared" si="19"/>
         <v>1449677216.5777044</v>
       </c>
       <c r="AG54">
-        <f>AF54+AG12</f>
+        <f t="shared" si="19"/>
         <v>1534401735.0278811</v>
       </c>
       <c r="AH54">
-        <f>AG54+AH12</f>
+        <f t="shared" si="19"/>
         <v>1620227212.7251487</v>
       </c>
       <c r="AI54">
-        <f>AH54+AI12</f>
+        <f t="shared" si="19"/>
         <v>1708210284.2819149</v>
       </c>
       <c r="AJ54">
-        <f>AI54+AJ12</f>
+        <f t="shared" si="19"/>
         <v>1798459788.8989689</v>
       </c>
       <c r="AK54">
-        <f>AJ54+AK12</f>
+        <f t="shared" ref="AK54:BP54" si="20">AJ54+AK12</f>
         <v>1891072374.2324369</v>
       </c>
       <c r="AL54">
-        <f>AK54+AL12</f>
+        <f t="shared" si="20"/>
         <v>1986155876.7845156</v>
       </c>
       <c r="AM54">
-        <f>AL54+AM12</f>
+        <f t="shared" si="20"/>
         <v>2083892120.798882</v>
       </c>
       <c r="AN54">
-        <f>AM54+AN12</f>
+        <f t="shared" si="20"/>
         <v>2184309819.4092808</v>
       </c>
       <c r="AO54">
-        <f>AN54+AO12</f>
+        <f t="shared" si="20"/>
         <v>2287499817.347785</v>
       </c>
       <c r="AP54">
-        <f>AO54+AP12</f>
+        <f t="shared" si="20"/>
         <v>2393531069.7746058</v>
       </c>
       <c r="AQ54">
-        <f>AP54+AQ12</f>
+        <f t="shared" si="20"/>
         <v>2502154447.7926674</v>
       </c>
       <c r="AR54">
-        <f>AQ54+AR12</f>
+        <f t="shared" si="20"/>
         <v>2613271424.2500286</v>
       </c>
       <c r="AS54">
-        <f>AR54+AS12</f>
+        <f t="shared" si="20"/>
         <v>2726776172.8073025</v>
       </c>
       <c r="AT54">
-        <f>AS54+AT12</f>
+        <f t="shared" si="20"/>
         <v>2842551444.2444263</v>
       </c>
       <c r="AU54">
-        <f>AT54+AU12</f>
+        <f t="shared" si="20"/>
         <v>2960473821.9656396</v>
       </c>
       <c r="AV54">
-        <f>AU54+AV12</f>
+        <f t="shared" si="20"/>
         <v>3080953534.5505786</v>
       </c>
       <c r="AW54">
-        <f>AV54+AW12</f>
+        <f t="shared" si="20"/>
         <v>3203756315.0291481</v>
       </c>
       <c r="AX54">
-        <f>AW54+AX12</f>
+        <f t="shared" si="20"/>
         <v>3328754598.4821825</v>
       </c>
       <c r="AY54">
-        <f>AX54+AY12</f>
+        <f t="shared" si="20"/>
         <v>3455479332.2711606</v>
       </c>
       <c r="AZ54">
-        <f>AY54+AZ12</f>
+        <f t="shared" si="20"/>
         <v>3583753411.9735913</v>
       </c>
       <c r="BA54">
-        <f>AZ54+BA12</f>
+        <f t="shared" si="20"/>
         <v>3713771818.0549655</v>
       </c>
       <c r="BB54">
-        <f>BA54+BB12</f>
+        <f t="shared" si="20"/>
         <v>3845905269.1182323</v>
       </c>
       <c r="BC54">
-        <f>BB54+BC12</f>
+        <f t="shared" si="20"/>
         <v>3980261877.7226443</v>
       </c>
       <c r="BD54">
-        <f>BC54+BD12</f>
+        <f t="shared" si="20"/>
         <v>4116848556.8770642</v>
       </c>
       <c r="BE54">
-        <f>BD54+BE12</f>
+        <f t="shared" si="20"/>
         <v>4255708474.9981189</v>
       </c>
       <c r="BF54">
-        <f>BE54+BF12</f>
+        <f t="shared" si="20"/>
         <v>4396956034.6213284</v>
       </c>
       <c r="BG54">
-        <f>BF54+BG12</f>
+        <f t="shared" si="20"/>
         <v>4540860440.7945442</v>
       </c>
       <c r="BH54">
-        <f>BG54+BH12</f>
+        <f t="shared" si="20"/>
         <v>4687637678.7272577</v>
       </c>
       <c r="BI54">
-        <f>BH54+BI12</f>
+        <f t="shared" si="20"/>
         <v>4837409465.9282513</v>
       </c>
       <c r="BJ54">
-        <f>BI54+BJ12</f>
+        <f t="shared" si="20"/>
         <v>4990285002.011116</v>
       </c>
       <c r="BK54">
-        <f>BJ54+BK12</f>
+        <f t="shared" si="20"/>
         <v>5146352044.9322615</v>
       </c>
       <c r="BL54">
-        <f>BK54+BL12</f>
+        <f t="shared" si="20"/>
         <v>5305798442.3526134</v>
       </c>
       <c r="BM54">
-        <f>BL54+BM12</f>
+        <f t="shared" si="20"/>
         <v>5468683007.5997477</v>
       </c>
       <c r="BN54">
-        <f>BM54+BN12</f>
+        <f t="shared" si="20"/>
         <v>5634897885.1417189</v>
       </c>
       <c r="BO54">
-        <f>BN54+BO12</f>
+        <f t="shared" si="20"/>
         <v>5804318473.9902058</v>
       </c>
       <c r="BP54">
-        <f>BO54+BP12</f>
+        <f t="shared" si="20"/>
         <v>5976870684.8041582</v>
       </c>
       <c r="BQ54">
-        <f>BP54+BQ12</f>
+        <f t="shared" ref="BQ54:CO54" si="21">BP54+BQ12</f>
         <v>6152699816.0541544</v>
       </c>
       <c r="BR54">
-        <f>BQ54+BR12</f>
+        <f t="shared" si="21"/>
         <v>6331814147.0190935</v>
       </c>
       <c r="BS54">
-        <f>BR54+BS12</f>
+        <f t="shared" si="21"/>
         <v>6514171406.0976334</v>
       </c>
       <c r="BT54">
-        <f>BS54+BT12</f>
+        <f t="shared" si="21"/>
         <v>6699712689.5685444</v>
       </c>
       <c r="BU54">
-        <f>BT54+BU12</f>
+        <f t="shared" si="21"/>
         <v>6888333238.0849524</v>
       </c>
       <c r="BV54">
-        <f>BU54+BV12</f>
+        <f t="shared" si="21"/>
         <v>7080073352.8414354</v>
       </c>
       <c r="BW54">
-        <f>BV54+BW12</f>
+        <f t="shared" si="21"/>
         <v>7274917331.0341539</v>
       </c>
       <c r="BX54">
-        <f>BW54+BX12</f>
+        <f t="shared" si="21"/>
         <v>7472942056.1966171</v>
       </c>
       <c r="BY54">
-        <f>BX54+BY12</f>
+        <f t="shared" si="21"/>
         <v>7674238445.3686523</v>
       </c>
       <c r="BZ54">
-        <f>BY54+BZ12</f>
+        <f t="shared" si="21"/>
         <v>7878839891.5334234</v>
       </c>
       <c r="CA54">
-        <f>BZ54+CA12</f>
+        <f t="shared" si="21"/>
         <v>8086951794.7080631</v>
       </c>
       <c r="CB54">
-        <f>CA54+CB12</f>
+        <f t="shared" si="21"/>
         <v>8298657326.3977175</v>
       </c>
       <c r="CC54">
-        <f>CB54+CC12</f>
+        <f t="shared" si="21"/>
         <v>8514023521.7305946</v>
       </c>
       <c r="CD54">
-        <f>CC54+CD12</f>
+        <f t="shared" si="21"/>
         <v>8733141321.8197212</v>
       </c>
       <c r="CE54">
-        <f>CD54+CE12</f>
+        <f t="shared" si="21"/>
         <v>8956115503.114275</v>
       </c>
       <c r="CF54">
-        <f>CE54+CF12</f>
+        <f t="shared" si="21"/>
         <v>9183280570.5653019</v>
       </c>
       <c r="CG54">
-        <f>CF54+CG12</f>
+        <f t="shared" si="21"/>
         <v>9414788917.3380146</v>
       </c>
       <c r="CH54">
-        <f>CG54+CH12</f>
+        <f t="shared" si="21"/>
         <v>9650713282.345108</v>
       </c>
       <c r="CI54">
-        <f>CH54+CI12</f>
+        <f t="shared" si="21"/>
         <v>9891091392.4624138</v>
       </c>
       <c r="CJ54">
-        <f>CI54+CJ12</f>
+        <f t="shared" si="21"/>
         <v>10135917351.398737</v>
       </c>
       <c r="CK54">
-        <f>CJ54+CK12</f>
+        <f t="shared" si="21"/>
         <v>10385331361.17679</v>
       </c>
       <c r="CL54">
-        <f>CK54+CL12</f>
+        <f t="shared" si="21"/>
         <v>10639356228.383703</v>
       </c>
       <c r="CM54">
-        <f>CL54+CM12</f>
+        <f t="shared" si="21"/>
         <v>10897953456.148222</v>
       </c>
       <c r="CN54">
-        <f>CM54+CN12</f>
+        <f t="shared" si="21"/>
         <v>11161100149.807541</v>
       </c>
       <c r="CO54">
-        <f>CN54+CO12</f>
+        <f t="shared" si="21"/>
         <v>11428774854.6329</v>
       </c>
     </row>
@@ -13322,359 +13325,359 @@
         <v>1472201.0284734729</v>
       </c>
       <c r="E55">
-        <f>D55+E13</f>
+        <f t="shared" ref="E55:AJ55" si="22">D55+E13</f>
         <v>2337558.5671355342</v>
       </c>
       <c r="F55">
-        <f>E55+F13</f>
+        <f t="shared" si="22"/>
         <v>2771184.8540032124</v>
       </c>
       <c r="G55">
-        <f>F55+G13</f>
+        <f t="shared" si="22"/>
         <v>3037828.2833040878</v>
       </c>
       <c r="H55">
-        <f>G55+H13</f>
+        <f t="shared" si="22"/>
         <v>3289217.5709186881</v>
       </c>
       <c r="I55">
-        <f>H55+I13</f>
+        <f t="shared" si="22"/>
         <v>3468891.5565226846</v>
       </c>
       <c r="J55">
-        <f>I55+J13</f>
+        <f t="shared" si="22"/>
         <v>3617705.3383149155</v>
       </c>
       <c r="K55">
-        <f>J55+K13</f>
+        <f t="shared" si="22"/>
         <v>3810703.0496804202</v>
       </c>
       <c r="L55">
-        <f>K55+L13</f>
+        <f t="shared" si="22"/>
         <v>4160189.8879022999</v>
       </c>
       <c r="M55">
-        <f>L55+M13</f>
+        <f t="shared" si="22"/>
         <v>4471736.3146623923</v>
       </c>
       <c r="N55">
-        <f>M55+N13</f>
+        <f t="shared" si="22"/>
         <v>4866564.9174245391</v>
       </c>
       <c r="O55">
-        <f>N55+O13</f>
+        <f t="shared" si="22"/>
         <v>5367289.2136914171</v>
       </c>
       <c r="P55">
-        <f>O55+P13</f>
+        <f t="shared" si="22"/>
         <v>8486390.5541876946</v>
       </c>
       <c r="Q55">
-        <f>P55+Q13</f>
+        <f t="shared" si="22"/>
         <v>11625832.011999771</v>
       </c>
       <c r="R55">
-        <f>Q55+R13</f>
+        <f t="shared" si="22"/>
         <v>14790359.232325446</v>
       </c>
       <c r="S55">
-        <f>R55+S13</f>
+        <f t="shared" si="22"/>
         <v>24689030.704669613</v>
       </c>
       <c r="T55">
-        <f>S55+T13</f>
+        <f t="shared" si="22"/>
         <v>34623065.957791939</v>
       </c>
       <c r="U55">
-        <f>T55+U13</f>
+        <f t="shared" si="22"/>
         <v>44597478.328131773</v>
       </c>
       <c r="V55">
-        <f>U55+V13</f>
+        <f t="shared" si="22"/>
         <v>54616791.879394792</v>
       </c>
       <c r="W55">
-        <f>V55+W13</f>
+        <f t="shared" si="22"/>
         <v>64684727.809002973</v>
       </c>
       <c r="X55">
-        <f>W55+X13</f>
+        <f t="shared" si="22"/>
         <v>74362528.489274502</v>
       </c>
       <c r="Y55">
-        <f>X55+Y13</f>
+        <f t="shared" si="22"/>
         <v>84092912.355854213</v>
       </c>
       <c r="Z55">
-        <f>Y55+Z13</f>
+        <f t="shared" si="22"/>
         <v>93876292.873984948</v>
       </c>
       <c r="AA55">
-        <f>Z55+AA13</f>
+        <f t="shared" si="22"/>
         <v>103713876.64119276</v>
       </c>
       <c r="AB55">
-        <f>AA55+AB13</f>
+        <f t="shared" si="22"/>
         <v>113609077.69798562</v>
       </c>
       <c r="AC55">
-        <f>AB55+AC13</f>
+        <f t="shared" si="22"/>
         <v>115737481.04520065</v>
       </c>
       <c r="AD55">
-        <f>AC55+AD13</f>
+        <f t="shared" si="22"/>
         <v>117941758.6967952</v>
       </c>
       <c r="AE55">
-        <f>AD55+AE13</f>
+        <f t="shared" si="22"/>
         <v>120241625.19247802</v>
       </c>
       <c r="AF55">
-        <f>AE55+AF13</f>
+        <f t="shared" si="22"/>
         <v>122667368.39821808</v>
       </c>
       <c r="AG55">
-        <f>AF55+AG13</f>
+        <f t="shared" si="22"/>
         <v>125261738.68442473</v>
       </c>
       <c r="AH55">
-        <f>AG55+AH13</f>
+        <f t="shared" si="22"/>
         <v>126599349.79275592</v>
       </c>
       <c r="AI55">
-        <f>AH55+AI13</f>
+        <f t="shared" si="22"/>
         <v>128229640.54807198</v>
       </c>
       <c r="AJ55">
-        <f>AI55+AJ13</f>
+        <f t="shared" si="22"/>
         <v>130230301.47014152</v>
       </c>
       <c r="AK55">
-        <f>AJ55+AK13</f>
+        <f t="shared" ref="AK55:BP55" si="23">AJ55+AK13</f>
         <v>132684111.05445933</v>
       </c>
       <c r="AL55">
-        <f>AK55+AL13</f>
+        <f t="shared" si="23"/>
         <v>135673000.0341593</v>
       </c>
       <c r="AM55">
-        <f>AL55+AM13</f>
+        <f t="shared" si="23"/>
         <v>139271040.89892775</v>
       </c>
       <c r="AN55">
-        <f>AM55+AN13</f>
+        <f t="shared" si="23"/>
         <v>143536849.53340012</v>
       </c>
       <c r="AO55">
-        <f>AN55+AO13</f>
+        <f t="shared" si="23"/>
         <v>148505961.0131236</v>
       </c>
       <c r="AP55">
-        <f>AO55+AP13</f>
+        <f t="shared" si="23"/>
         <v>154183854.38270152</v>
       </c>
       <c r="AQ55">
-        <f>AP55+AQ13</f>
+        <f t="shared" si="23"/>
         <v>160540499.05161184</v>
       </c>
       <c r="AR55">
-        <f>AQ55+AR13</f>
+        <f t="shared" si="23"/>
         <v>167507468.23512083</v>
       </c>
       <c r="AS55">
-        <f>AR55+AS13</f>
+        <f t="shared" si="23"/>
         <v>174978535.69313565</v>
       </c>
       <c r="AT55">
-        <f>AS55+AT13</f>
+        <f t="shared" si="23"/>
         <v>182814360.30164349</v>
       </c>
       <c r="AU55">
-        <f>AT55+AU13</f>
+        <f t="shared" si="23"/>
         <v>190851256.96394691</v>
       </c>
       <c r="AV55">
-        <f>AU55+AV13</f>
+        <f t="shared" si="23"/>
         <v>199912294.5985947</v>
       </c>
       <c r="AW55">
-        <f>AV55+AW13</f>
+        <f t="shared" si="23"/>
         <v>209106739.40033385</v>
       </c>
       <c r="AX55">
-        <f>AW55+AX13</f>
+        <f t="shared" si="23"/>
         <v>217993012.39946002</v>
       </c>
       <c r="AY55">
-        <f>AX55+AY13</f>
+        <f t="shared" si="23"/>
         <v>226439725.10772815</v>
       </c>
       <c r="AZ55">
-        <f>AY55+AZ13</f>
+        <f t="shared" si="23"/>
         <v>234352122.34247375</v>
       </c>
       <c r="BA55">
-        <f>AZ55+BA13</f>
+        <f t="shared" si="23"/>
         <v>241677590.12867561</v>
       </c>
       <c r="BB55">
-        <f>BA55+BB13</f>
+        <f t="shared" si="23"/>
         <v>248262443.60351887</v>
       </c>
       <c r="BC55">
-        <f>BB55+BC13</f>
+        <f t="shared" si="23"/>
         <v>254286117.05648407</v>
       </c>
       <c r="BD55">
-        <f>BC55+BD13</f>
+        <f t="shared" si="23"/>
         <v>259821390.94046342</v>
       </c>
       <c r="BE55">
-        <f>BD55+BE13</f>
+        <f t="shared" si="23"/>
         <v>264972420.81194288</v>
       </c>
       <c r="BF55">
-        <f>BE55+BF13</f>
+        <f t="shared" si="23"/>
         <v>269865083.68482673</v>
       </c>
       <c r="BG55">
-        <f>BF55+BG13</f>
+        <f t="shared" si="23"/>
         <v>274492438.43758512</v>
       </c>
       <c r="BH55">
-        <f>BG55+BH13</f>
+        <f t="shared" si="23"/>
         <v>279132697.61735344</v>
       </c>
       <c r="BI55">
-        <f>BH55+BI13</f>
+        <f t="shared" si="23"/>
         <v>283909455.68169248</v>
       </c>
       <c r="BJ55">
-        <f>BI55+BJ13</f>
+        <f t="shared" si="23"/>
         <v>288927473.96132731</v>
       </c>
       <c r="BK55">
-        <f>BJ55+BK13</f>
+        <f t="shared" si="23"/>
         <v>294268548.46573287</v>
       </c>
       <c r="BL55">
-        <f>BK55+BL13</f>
+        <f t="shared" si="23"/>
         <v>299882536.90790814</v>
       </c>
       <c r="BM55">
-        <f>BL55+BM13</f>
+        <f t="shared" si="23"/>
         <v>305910964.14642233</v>
       </c>
       <c r="BN55">
-        <f>BM55+BN13</f>
+        <f t="shared" si="23"/>
         <v>312365396.57026899</v>
       </c>
       <c r="BO55">
-        <f>BN55+BO13</f>
+        <f t="shared" si="23"/>
         <v>319236877.30170196</v>
       </c>
       <c r="BP55">
-        <f>BO55+BP13</f>
+        <f t="shared" si="23"/>
         <v>326497892.97781545</v>
       </c>
       <c r="BQ55">
-        <f>BP55+BQ13</f>
+        <f t="shared" ref="BQ55:CO55" si="24">BP55+BQ13</f>
         <v>334029572.42183453</v>
       </c>
       <c r="BR55">
-        <f>BQ55+BR13</f>
+        <f t="shared" si="24"/>
         <v>341849717.34485757</v>
       </c>
       <c r="BS55">
-        <f>BR55+BS13</f>
+        <f t="shared" si="24"/>
         <v>349890653.66260046</v>
       </c>
       <c r="BT55">
-        <f>BS55+BT13</f>
+        <f t="shared" si="24"/>
         <v>358077844.95217156</v>
       </c>
       <c r="BU55">
-        <f>BT55+BU13</f>
+        <f t="shared" si="24"/>
         <v>366333698.98714834</v>
       </c>
       <c r="BV55">
-        <f>BU55+BV13</f>
+        <f t="shared" si="24"/>
         <v>374508338.15868276</v>
       </c>
       <c r="BW55">
-        <f>BV55+BW13</f>
+        <f t="shared" si="24"/>
         <v>382603686.26647425</v>
       </c>
       <c r="BX55">
-        <f>BW55+BX13</f>
+        <f t="shared" si="24"/>
         <v>390557833.44264752</v>
       </c>
       <c r="BY55">
-        <f>BX55+BY13</f>
+        <f t="shared" si="24"/>
         <v>398322255.22325796</v>
       </c>
       <c r="BZ55">
-        <f>BY55+BZ13</f>
+        <f t="shared" si="24"/>
         <v>405865065.59968472</v>
       </c>
       <c r="CA55">
-        <f>BZ55+CA13</f>
+        <f t="shared" si="24"/>
         <v>413096214.23029894</v>
       </c>
       <c r="CB55">
-        <f>CA55+CB13</f>
+        <f t="shared" si="24"/>
         <v>420098929.2235623</v>
       </c>
       <c r="CC55">
-        <f>CB55+CC13</f>
+        <f t="shared" si="24"/>
         <v>426897817.5258919</v>
       </c>
       <c r="CD55">
-        <f>CC55+CD13</f>
+        <f t="shared" si="24"/>
         <v>433533085.58551633</v>
       </c>
       <c r="CE55">
-        <f>CD55+CE13</f>
+        <f t="shared" si="24"/>
         <v>440056536.12616837</v>
       </c>
       <c r="CF55">
-        <f>CE55+CF13</f>
+        <f t="shared" si="24"/>
         <v>446440063.30741888</v>
       </c>
       <c r="CG55">
-        <f>CF55+CG13</f>
+        <f t="shared" si="24"/>
         <v>452831064.70628148</v>
       </c>
       <c r="CH55">
-        <f>CG55+CH13</f>
+        <f t="shared" si="24"/>
         <v>459287620.26283729</v>
       </c>
       <c r="CI55">
-        <f>CH55+CI13</f>
+        <f t="shared" si="24"/>
         <v>465861443.54951888</v>
       </c>
       <c r="CJ55">
-        <f>CI55+CJ13</f>
+        <f t="shared" si="24"/>
         <v>472594951.69209653</v>
       </c>
       <c r="CK55">
-        <f>CJ55+CK13</f>
+        <f t="shared" si="24"/>
         <v>479400695.35393518</v>
       </c>
       <c r="CL55">
-        <f>CK55+CL13</f>
+        <f t="shared" si="24"/>
         <v>486416064.33125055</v>
       </c>
       <c r="CM55">
-        <f>CL55+CM13</f>
+        <f t="shared" si="24"/>
         <v>493647336.3804509</v>
       </c>
       <c r="CN55">
-        <f>CM55+CN13</f>
+        <f t="shared" si="24"/>
         <v>501088848.41501266</v>
       </c>
       <c r="CO55">
-        <f>CN55+CO13</f>
+        <f t="shared" si="24"/>
         <v>508724228.13042694</v>
       </c>
     </row>
